--- a/aula03/metadado/planets_metadado_to_work.xlsx
+++ b/aula03/metadado/planets_metadado_to_work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f054485a52af266/Impacta/DataOps_DE03/aula03/metadado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="8_{FD5A1D61-5EEC-4F52-A224-6C7B828AC811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16D51B46-5894-4741-AC90-EC9E3C40A8AB}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="8_{FD5A1D61-5EEC-4F52-A224-6C7B828AC811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0538EC37-3959-4A0A-89B1-A7EF42BC1BF2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{56E82249-3F94-4ED0-8D74-558A49E5802A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56E82249-3F94-4ED0-8D74-558A49E5802A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -594,23 +594,23 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="70.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -960,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
     </row>
   </sheetData>
